--- a/17 - Lista de Eventos.xlsx
+++ b/17 - Lista de Eventos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SILVESTRE\Desktop\Facul\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee_Brothers\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19531936-C209-4F09-BBAF-6FFB4CD6F0D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7815"/>
+    <workbookView xWindow="11310" yWindow="1305" windowWidth="15375" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Externo</t>
   </si>
@@ -125,91 +126,64 @@
     <t>x(3)</t>
   </si>
   <si>
-    <t>Vender</t>
-  </si>
-  <si>
     <t>Cliente solicita a troca de peça</t>
   </si>
   <si>
-    <t>help desk solicita os dados da peça</t>
-  </si>
-  <si>
-    <t xml:space="preserve">help desk oferece dias e horarios disponíveis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cliente confirma agendamento </t>
-  </si>
-  <si>
-    <t>help desk finaliza a chamada</t>
-  </si>
-  <si>
     <t>x(4)</t>
   </si>
   <si>
-    <t>Fornecer peças</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cliente informa dados da troca </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fornecedora guarda os dados </t>
-  </si>
-  <si>
-    <t>cliente solicita as peças</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fornecedor oferece peças novas </t>
-  </si>
-  <si>
-    <t>cliente seleciona a peça</t>
-  </si>
-  <si>
-    <t>fornecedor informa valor do pedido</t>
-  </si>
-  <si>
-    <t>x(5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cliente paga o valor </t>
-  </si>
-  <si>
-    <t>x(6)</t>
-  </si>
-  <si>
     <t>Manutenção</t>
   </si>
   <si>
     <t>cliente solicita mautenção</t>
   </si>
   <si>
-    <t>help desk abre a chamada</t>
-  </si>
-  <si>
     <t xml:space="preserve">help desk oferece os dias e horários disponíveis </t>
   </si>
   <si>
-    <t xml:space="preserve">cliente seleciona a data </t>
-  </si>
-  <si>
     <t>help deck informa ao técnico</t>
   </si>
   <si>
     <t xml:space="preserve">técnico faz  a manutenção </t>
   </si>
   <si>
-    <t>x(7)</t>
-  </si>
-  <si>
     <t xml:space="preserve">técnico retornar status da manutenção </t>
   </si>
   <si>
-    <t>x(8)</t>
+    <t>Suporte técnico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cliente informa dados do problema </t>
+  </si>
+  <si>
+    <t>help desk destrincha problemas do cliente</t>
+  </si>
+  <si>
+    <t>help desk retorna duvidas do problema</t>
+  </si>
+  <si>
+    <t>Suporte Técnico é acionado para o reparo</t>
+  </si>
+  <si>
+    <t>help desk finaliza o pedido</t>
+  </si>
+  <si>
+    <t>troca de peças com defeito</t>
+  </si>
+  <si>
+    <t>help desk retorna duvidas sobre o problema ocorrido</t>
+  </si>
+  <si>
+    <t>help desk oferece dias e horarios disponíveis para troca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">help desk finaliza atendimento  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -289,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -415,37 +389,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -455,12 +407,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -475,40 +421,52 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,11 +747,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,536 +763,444 @@
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="5"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="10">
+      <c r="A4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="5">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="10">
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="5">
         <v>3</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="10">
+      <c r="A6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="5">
         <v>4</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="5">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="5">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="10">
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="D20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="10">
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="10">
+      <c r="D21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="5">
         <v>4</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="D22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="10">
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="5">
         <v>5</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="10">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="10">
-        <v>2</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="10">
-        <v>3</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="10">
-        <v>4</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="10">
-        <v>5</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="10">
-        <v>6</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="10">
-        <v>7</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="10">
-        <v>1</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="10">
-        <v>2</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="10">
-        <v>3</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="10">
-        <v>4</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="10">
-        <v>5</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="10">
-        <v>6</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="10">
-        <v>7</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
+      <c r="E23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B3:B6"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B3:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/17 - Lista de Eventos.xlsx
+++ b/17 - Lista de Eventos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SILVESTRE\Desktop\Facul\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HENRIQUE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E562C9-AE77-470B-8FDC-DAC226194F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7815"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
   <si>
     <t>Externo</t>
   </si>
@@ -260,34 +261,40 @@
     <t>Técnico faz a manutenção do produto</t>
   </si>
   <si>
-    <t>x(26)</t>
-  </si>
-  <si>
     <t>x(27)</t>
   </si>
   <si>
     <t>x(28)</t>
   </si>
   <si>
-    <t>x(31)</t>
-  </si>
-  <si>
-    <t>x(25, 29)</t>
-  </si>
-  <si>
     <t>Técnico envia relatório da manutenção</t>
   </si>
   <si>
     <t>Técnico envia relatório da instalação</t>
   </si>
   <si>
-    <t>x(25,29)</t>
+    <t>Técnico verificar escopo do trabalho</t>
+  </si>
+  <si>
+    <t>x(25)</t>
+  </si>
+  <si>
+    <t>x(29)</t>
+  </si>
+  <si>
+    <t>x(30)</t>
+  </si>
+  <si>
+    <t>x(26,30)</t>
+  </si>
+  <si>
+    <t>x(33)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -592,15 +599,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -619,59 +617,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -951,11 +958,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,700 +977,736 @@
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="8"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="10">
+      <c r="A4" s="23"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="10">
+      <c r="A5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="10">
+      <c r="A6" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="10">
+      <c r="A8" s="23"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="7">
         <v>6</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="10">
+      <c r="A9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="7">
         <v>7</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="14"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="10">
+      <c r="A10" s="23"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>9</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="10">
+      <c r="A12" s="23"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="7">
         <v>10</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="10">
+      <c r="A13" s="23"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="7">
         <v>11</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="10">
+      <c r="A14" s="23"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="7">
         <v>12</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>13</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="14"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="10">
+      <c r="A16" s="23"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="7">
         <v>14</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <v>15</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="10">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="7">
         <v>16</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="7">
         <v>17</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="14"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="10">
+      <c r="A20" s="23"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="7">
         <v>18</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="7">
         <v>19</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="7">
         <v>20</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="J22" s="14"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="10">
+      <c r="A23" s="23"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="7">
         <v>21</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>22</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="10">
+      <c r="A25" s="23"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="7">
         <v>23</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="7">
+        <v>24</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="10">
-        <v>24</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="7">
+        <v>25</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="10">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="7">
+        <v>26</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="B29" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="7">
+        <v>27</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="7">
+        <v>28</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="7">
+        <v>29</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="7">
+        <v>30</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="21" t="s">
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="7">
+        <v>31</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="10">
-        <v>26</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="10">
-        <v>27</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="10">
-        <v>28</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
-    </row>
-    <row r="31" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="10">
+      <c r="C34" s="7">
+        <v>32</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="14"/>
-    </row>
-    <row r="32" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="10">
-        <v>30</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="14"/>
-    </row>
-    <row r="33" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="10">
-        <v>31</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="C35" s="7">
+        <v>33</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="J33" s="14"/>
-    </row>
-    <row r="34" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="10">
-        <v>32</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="7">
+        <v>34</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F41" s="34"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F43" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A34:A36"/>
     <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
     <mergeCell ref="B7:B10"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B33"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/17 - Lista de Eventos.xlsx
+++ b/17 - Lista de Eventos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HENRIQUE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E562C9-AE77-470B-8FDC-DAC226194F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1692F27-6FEF-4080-876D-737D97892FBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,31 +637,31 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,7 +962,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,15 +977,15 @@
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="25" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="26"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1019,10 +1019,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="7">
@@ -1041,8 +1041,8 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="7">
         <v>2</v>
       </c>
@@ -1059,8 +1059,8 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="7">
         <v>3</v>
       </c>
@@ -1077,26 +1077,26 @@
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="7">
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="7">
@@ -1115,8 +1115,8 @@
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="7">
         <v>6</v>
       </c>
@@ -1133,8 +1133,8 @@
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="7">
         <v>7</v>
       </c>
@@ -1151,8 +1151,8 @@
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="7">
         <v>8</v>
       </c>
@@ -1169,10 +1169,10 @@
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="7">
@@ -1191,8 +1191,8 @@
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="7">
         <v>10</v>
       </c>
@@ -1209,8 +1209,8 @@
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="7">
         <v>11</v>
       </c>
@@ -1227,8 +1227,8 @@
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="7">
         <v>12</v>
       </c>
@@ -1245,8 +1245,8 @@
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="7">
@@ -1265,8 +1265,8 @@
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="7">
         <v>14</v>
       </c>
@@ -1283,10 +1283,10 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="7">
@@ -1295,36 +1295,36 @@
       <c r="D17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="F17" s="9"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="7">
         <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="28" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="26" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="7">
@@ -1343,8 +1343,8 @@
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="7">
         <v>18</v>
       </c>
@@ -1361,7 +1361,7 @@
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -1383,7 +1383,7 @@
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="30" t="s">
         <v>29</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="31"/>
       <c r="C23" s="7">
         <v>21</v>
@@ -1421,7 +1421,7 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="24" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="32" t="s">
@@ -1443,7 +1443,7 @@
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="33"/>
       <c r="C25" s="7">
         <v>23</v>
@@ -1461,7 +1461,7 @@
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="33"/>
       <c r="C26" s="7">
         <v>24</v>
@@ -1479,7 +1479,7 @@
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="33"/>
       <c r="C27" s="7">
         <v>25</v>
@@ -1497,7 +1497,7 @@
       <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="34"/>
       <c r="C28" s="7">
         <v>26</v>
@@ -1505,17 +1505,17 @@
       <c r="D28" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="10" t="s">
-        <v>71</v>
-      </c>
+      <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -1537,7 +1537,7 @@
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="33"/>
       <c r="C30" s="7">
         <v>28</v>
@@ -1555,7 +1555,7 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="33"/>
       <c r="C31" s="7">
         <v>29</v>
@@ -1573,7 +1573,7 @@
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="33"/>
       <c r="C32" s="7">
         <v>30</v>
@@ -1581,17 +1581,17 @@
       <c r="D32" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="F32" s="9"/>
-      <c r="G32" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="34"/>
       <c r="C33" s="7">
         <v>31</v>
@@ -1609,7 +1609,7 @@
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -1631,8 +1631,8 @@
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="21" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="7">
@@ -1651,8 +1651,8 @@
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="7">
         <v>34</v>
       </c>
@@ -1688,11 +1688,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="A3:A10"/>
@@ -1707,6 +1702,11 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="B29:B33"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/17 - Lista de Eventos.xlsx
+++ b/17 - Lista de Eventos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HENRIQUE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1692F27-6FEF-4080-876D-737D97892FBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082DF184-D835-49B9-A8B6-EE9CBABAAAA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>Externo</t>
   </si>
@@ -111,9 +111,6 @@
     <t>x(3)</t>
   </si>
   <si>
-    <t>x(4)</t>
-  </si>
-  <si>
     <t>x(5)</t>
   </si>
   <si>
@@ -156,12 +153,6 @@
     <t>Recepção solicita dados do problema</t>
   </si>
   <si>
-    <t>Recepção cobra dados do cadastro</t>
-  </si>
-  <si>
-    <t>Recepção cobra dados do problema</t>
-  </si>
-  <si>
     <t>Cliente informa dados do problema</t>
   </si>
   <si>
@@ -171,15 +162,9 @@
     <t>Recepção envia datas e horários disponíveis</t>
   </si>
   <si>
-    <t>Recepção cobra resposta do técnico</t>
-  </si>
-  <si>
     <t>Recepção envia dúvidas para o técnico</t>
   </si>
   <si>
-    <t>Recepção cobra confirmação da data e hora do cliente</t>
-  </si>
-  <si>
     <t>Cliente informa data e horário</t>
   </si>
   <si>
@@ -189,15 +174,9 @@
     <t>Técnico recebe agenda</t>
   </si>
   <si>
-    <t>Técnico cobra agenda</t>
-  </si>
-  <si>
     <t>Recepção recebe relatório de trabalho</t>
   </si>
   <si>
-    <t>Recepção cobra relatório de trabalho</t>
-  </si>
-  <si>
     <t>Técnico instala produto</t>
   </si>
   <si>
@@ -216,24 +195,12 @@
     <t>x(13)</t>
   </si>
   <si>
-    <t>x(11)</t>
-  </si>
-  <si>
     <t>x(10)</t>
   </si>
   <si>
-    <t>x(12)</t>
-  </si>
-  <si>
-    <t>x(15)</t>
-  </si>
-  <si>
     <t>Cliente não informa data e horário</t>
   </si>
   <si>
-    <t>x(17)</t>
-  </si>
-  <si>
     <t>x(16)</t>
   </si>
   <si>
@@ -249,9 +216,6 @@
     <t>Técnico envia check-in na residência</t>
   </si>
   <si>
-    <t>x(22)</t>
-  </si>
-  <si>
     <t>x(23)</t>
   </si>
   <si>
@@ -261,12 +225,6 @@
     <t>Técnico faz a manutenção do produto</t>
   </si>
   <si>
-    <t>x(27)</t>
-  </si>
-  <si>
-    <t>x(28)</t>
-  </si>
-  <si>
     <t>Técnico envia relatório da manutenção</t>
   </si>
   <si>
@@ -279,16 +237,31 @@
     <t>x(25)</t>
   </si>
   <si>
-    <t>x(29)</t>
-  </si>
-  <si>
-    <t>x(30)</t>
-  </si>
-  <si>
-    <t>x(26,30)</t>
-  </si>
-  <si>
-    <t>x(33)</t>
+    <t>Recepção esclarece duvidas com cliente</t>
+  </si>
+  <si>
+    <t>x(6)</t>
+  </si>
+  <si>
+    <t>x(8)</t>
+  </si>
+  <si>
+    <t>x(14)</t>
+  </si>
+  <si>
+    <t>x(18)</t>
+  </si>
+  <si>
+    <t>x(19)</t>
+  </si>
+  <si>
+    <t>x(21)</t>
+  </si>
+  <si>
+    <t>x(26)</t>
+  </si>
+  <si>
+    <t>x(22,27)</t>
   </si>
 </sst>
 </file>
@@ -581,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -637,6 +610,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -646,37 +649,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -959,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,15 +956,15 @@
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="21" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="22"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1019,17 +998,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
@@ -1041,13 +1020,13 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="7">
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -1059,13 +1038,13 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="7">
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>14</v>
@@ -1077,112 +1056,112 @@
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="C6" s="7">
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>15</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25" t="s">
-        <v>29</v>
+      <c r="A7" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="I7" s="10"/>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7">
         <v>6</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="7">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="I9" s="10"/>
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="7">
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="35"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="7">
         <v>9</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
@@ -1191,130 +1170,136 @@
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="7">
         <v>10</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="C13" s="7">
         <v>11</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>52</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="7">
         <v>12</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="I14" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25" t="s">
-        <v>29</v>
+      <c r="A15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>11</v>
       </c>
       <c r="C15" s="7">
         <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="I15" s="10"/>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="7">
         <v>14</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>11</v>
+      <c r="A17" s="26"/>
+      <c r="B17" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="C17" s="7">
         <v>15</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="I17" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="29"/>
+    <row r="18" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="C18" s="7">
         <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
@@ -1322,59 +1307,59 @@
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="26" t="s">
-        <v>29</v>
+    <row r="19" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="7">
         <v>17</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="27"/>
+    <row r="20" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>11</v>
+      </c>
       <c r="C20" s="7">
         <v>18</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>11</v>
-      </c>
+    <row r="21" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="7">
         <v>19</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="10"/>
@@ -1382,59 +1367,53 @@
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="30" t="s">
-        <v>29</v>
-      </c>
+    <row r="22" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="7">
         <v>20</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="H22" s="10"/>
-      <c r="I22" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="I22" s="10"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="31"/>
+    <row r="23" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="7">
         <v>21</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>11</v>
-      </c>
+      <c r="A24" s="26"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="7">
         <v>22</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="10"/>
@@ -1442,17 +1421,21 @@
       <c r="I24" s="10"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="33"/>
+    <row r="25" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>11</v>
+      </c>
       <c r="C25" s="7">
         <v>23</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="10"/>
@@ -1460,53 +1443,53 @@
       <c r="I25" s="10"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="33"/>
+    <row r="26" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="7">
         <v>24</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="33"/>
+    <row r="27" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="7">
         <v>25</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="10" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="34"/>
+    <row r="28" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="7">
         <v>26</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
@@ -1515,35 +1498,35 @@
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>11</v>
-      </c>
+      <c r="A29" s="26"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="7">
         <v>27</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>57</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="C30" s="7">
         <v>28</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>66</v>
@@ -1555,160 +1538,62 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="C31" s="7">
         <v>29</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="I31" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="7">
-        <v>30</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="7">
-        <v>31</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="7">
-        <v>32</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="7">
-        <v>33</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="1:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="7">
-        <v>34</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F43" s="20"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B33"/>
+  <mergeCells count="15">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B7:B12"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B25:B29"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>